--- a/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
+++ b/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="920" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -311,7 +311,13 @@
     <t>all</t>
   </si>
   <si>
-    <t>Don't scale to 1990-1991 drop so as to be closer to EMEP trend</t>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>Scale from 2000 so as to be closer to EMEP trend</t>
+  </si>
+  <si>
+    <t>Don't scale 1981 to avoid reporting inconsistency in inventory</t>
   </si>
 </sst>
 </file>
@@ -367,8 +373,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="163">
+  <cellStyleXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -539,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="163">
+  <cellStyles count="183">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -621,6 +647,16 @@
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -702,6 +738,16 @@
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1038,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1931,7 +1977,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1988,15 +2034,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2019,10 +2068,13 @@
         <v>92</v>
       </c>
       <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -2039,13 +2091,45 @@
         <v>7</v>
       </c>
       <c r="F2">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="G2">
         <v>2010</v>
       </c>
       <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>1982</v>
+      </c>
+      <c r="G3">
+        <v>2020</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
+++ b/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5200" yWindow="6100" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -318,6 +318,15 @@
   </si>
   <si>
     <t>Don't scale 1981 to avoid reporting inconsistency in inventory</t>
+  </si>
+  <si>
+    <t>lux</t>
+  </si>
+  <si>
+    <t>Avoid imlied Nox EF dip 1986-1989</t>
+  </si>
+  <si>
+    <t>Problematic to lump this with stationary sectors, and probably something other than rail here, so try leaving out</t>
   </si>
 </sst>
 </file>
@@ -373,8 +382,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="183">
+  <cellStyleXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -565,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="183">
+  <cellStyles count="199">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -657,6 +682,14 @@
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -748,6 +781,14 @@
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1084,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1520,14 +1561,13 @@
       <c r="A42" t="s">
         <v>57</v>
       </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
       <c r="C42" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
@@ -2034,10 +2074,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2132,6 +2172,35 @@
         <v>98</v>
       </c>
     </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>1990</v>
+      </c>
+      <c r="G4">
+        <v>2020</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
+++ b/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="5200" yWindow="6100" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="100">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -260,9 +260,6 @@
     <t>2D_Degreasing-Cleaning</t>
   </si>
   <si>
-    <t>Shipping</t>
-  </si>
-  <si>
     <t>3I_Agriculture-other</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
   </si>
   <si>
     <t>3E_Enteric-fermentation</t>
-  </si>
-  <si>
-    <t>Aviation</t>
   </si>
   <si>
     <t>Other</t>
@@ -1126,7 +1120,7 @@
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="B39" sqref="B39:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1464,7 +1458,7 @@
         <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F33" s="2"/>
     </row>
@@ -1482,7 +1476,7 @@
         <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -1511,9 +1505,6 @@
       <c r="A38" t="s">
         <v>55</v>
       </c>
-      <c r="B38" t="s">
-        <v>79</v>
-      </c>
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -1523,9 +1514,6 @@
       <c r="A39" t="s">
         <v>64</v>
       </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
       <c r="C39" t="s">
         <v>26</v>
       </c>
@@ -1535,9 +1523,6 @@
       <c r="A40" t="s">
         <v>56</v>
       </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
       <c r="C40" t="s">
         <v>22</v>
       </c>
@@ -1548,9 +1533,6 @@
       <c r="A41" t="s">
         <v>63</v>
       </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
       <c r="C41" t="s">
         <v>23</v>
       </c>
@@ -1566,7 +1548,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1574,7 +1556,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
         <v>30</v>
@@ -1583,7 +1565,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="B44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -1592,7 +1574,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -1601,7 +1583,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="B46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
@@ -1613,7 +1595,7 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
         <v>44</v>
@@ -1657,7 +1639,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
         <v>41</v>
@@ -1669,7 +1651,7 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
         <v>42</v>
@@ -1679,10 +1661,10 @@
     <row r="55" spans="1:6">
       <c r="A55" s="4"/>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -1690,10 +1672,10 @@
     <row r="56" spans="1:6">
       <c r="A56" s="4"/>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -1701,17 +1683,17 @@
     <row r="57" spans="1:6">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6">
       <c r="B58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
         <v>43</v>
@@ -1721,10 +1703,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="B59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -2099,27 +2081,27 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
         <v>91</v>
-      </c>
-      <c r="G1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2140,15 +2122,15 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2169,12 +2151,12 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -2198,7 +2180,7 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
+++ b/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="6100" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="5200" yWindow="6100" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>1A3di_International-shipping</t>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation</t>
-  </si>
-  <si>
     <t>1A4a_Commercial-institutional</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>Problematic to lump this with stationary sectors, and probably something other than rail here, so try leaving out</t>
+  </si>
+  <si>
+    <t>1A3dii_Domestic-navigation</t>
   </si>
 </sst>
 </file>
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:B41"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1146,20 +1146,20 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1262,17 +1262,17 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -1282,219 +1282,219 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
@@ -1512,16 +1512,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
         <v>22</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
         <v>23</v>
@@ -1541,130 +1541,130 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:6">
       <c r="B45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:6">
       <c r="B46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:6">
       <c r="C48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:6">
       <c r="C49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:6">
       <c r="C50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6">
       <c r="B51" s="2"/>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6">
       <c r="B52" s="2"/>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="4"/>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -1672,10 +1672,10 @@
     <row r="56" spans="1:6">
       <c r="A56" s="4"/>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -1683,44 +1683,44 @@
     <row r="57" spans="1:6">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6">
       <c r="B58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6">
       <c r="B59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="2"/>
       <c r="E61" s="2"/>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="2"/>
       <c r="E62" s="2"/>
@@ -1998,7 +1998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -2081,27 +2081,27 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
         <v>90</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2122,15 +2122,15 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2151,15 +2151,15 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2180,7 +2180,7 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
+++ b/input/mappings/scaling/EMEP_NFR14_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="6100" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -1985,7 +1985,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1998,7 +1997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -2045,7 +2044,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2056,10 +2054,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2067,7 +2065,7 @@
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2090,13 +2088,10 @@
         <v>89</v>
       </c>
       <c r="H1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -2119,13 +2114,10 @@
         <v>2010</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -2148,13 +2140,10 @@
         <v>2020</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -2177,15 +2166,11 @@
         <v>2020</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
